--- a/service/vv.xlsx
+++ b/service/vv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27675" windowHeight="11925"/>
+    <workbookView windowWidth="26670" windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -84,6 +84,81 @@
   </si>
   <si>
     <t>已为您查询到“WL872921002”物流状态:当前最新运输地址为[北京市] 已到达 北京分拨交付中心。[查看详情]</t>
+  </si>
+  <si>
+    <t>打开国网电子商务平台</t>
+  </si>
+  <si>
+    <t>国网电子商务平台是一个真实的网站，你可以使用你的网络浏览器手动打开。请按照以下步骤操作：
+打开你常用的互联网浏览器（例如Google Chrome、Mozilla Firefox、Microsoft Edge等）。
+在浏览器的地址栏中输入 "https://ecp.sgcc.com.cn/ecp2.0/portal/#"，然后按下回车键。
+这将打开国网电子商务平台的主页。
+在网站上浏览和访问所需的功能和服务。
+请注意，国网电子商务平台可能需要特定的登录凭据或访问权限。如果你没有相应的凭据或权限，可能无法完全访问该平台的所有功能。
+如果你遇到任何问题或需要进一步的帮助，请联系国网电子商务平台的技术支持或相关负责人员。
+希望这能帮到你！如果还有其他问题，请随时提问。</t>
+  </si>
+  <si>
+    <t>RPA:请帮我打开国网电子商务平台</t>
+  </si>
+  <si>
+    <r>
+      <t>在浏览器的地址栏中输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "https://ecp.sgcc.com.cn/ecp2.0/portal/#/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然后按下回车键。</t>
+    </r>
+  </si>
+  <si>
+    <t>RPA:点击招标采购按钮</t>
+  </si>
+  <si>
+    <t>好的，已为您在主页上寻找或导航到与招标采购相关的部分或链接。并模拟点击完成。</t>
+  </si>
+  <si>
+    <t>RPA:我希望打开招标公告</t>
+  </si>
+  <si>
+    <t>好的，查找名为"招标公告"、"采购公告"、"招标信息"或类似标签的链接或按钮。并模拟点击完成。</t>
+  </si>
+  <si>
+    <t>RPA:我希望获取表格里内容</t>
+  </si>
+  <si>
+    <t>[[],[" 【国家电网有限公司】国家电网有限公司2023年第三十八批采购（数字化项目第一次专用安防设备邀请招标采购） ","0711-23OTL10612045","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年第四十批采购（数字化项目第二次服务招标采购） ","0711-23OTL10512044","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年第三十七批采购（数字化项目第二次设备招标采购） ","0711-23OTL10412043","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年第六十八批采购（特高压项目第五次设备招标采购） ","0711-23OTL10012040","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年第六十六批采购（特高压项目第五次服务（前期）招标采购） ","0711-23OTL11313052","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年第七十五批采购（特高压项目第六次服务招标采购） ","0711-23OTL10113041","正在招标","2023-08-29"],[" 【国家电网有限公司】国家电网有限公司2023年新增第十七批采购（输变电项目第一次新增变电设备招标采购） ","0711-23OTL10211042","正在招标","2023-08-29"],[" 【国网新疆电力有限公司】国网新疆电力有限公司2023年第三次物资公开招标采购 ","302303","正在招标","2023-08-29"],[" 【国网天津市电力公司】国网天津市电力公司2023年第六次物资招标采购 ","032306","正在招标","2023-08-29"],[" 【国网天津市电力公司】国网天津市电力公司2023年第七次工程及服务招标采购 ","TJFZ2023007","正在招标","2023-08-29"],[" 【国网宁夏电力有限公司】国网宁夏电力有限公司2023年第一次新增服务公开招标采购 ","GWFW-NX-2923Z2","正在招标","2023-08-29"],[" 【国网天津市电力公司】国网天津市电力公司2023年第三次工程及服务框架协议公开...(2.50KB)</t>
+  </si>
+  <si>
+    <t>RPA:网页url是啥</t>
+  </si>
+  <si>
+    <t>https://ecp.sgcc.com.cn/ecp2.0/portal/#/list/list-spe/2018032600289606_1_2018032700291334</t>
+  </si>
+  <si>
+    <t>RPA:筛选编号为0711-23OTL10612045的文件</t>
+  </si>
+  <si>
+    <t>已为您在筛选或搜索框中输入编号 "0711-23OTL10612045"，并触发筛选操作。</t>
+  </si>
+  <si>
+    <t>RPA:下载该文件招标书</t>
+  </si>
+  <si>
+    <t>已点击招标文件的链接或相关的下载按钮。</t>
   </si>
 </sst>
 </file>
@@ -96,7 +171,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,17 +193,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +341,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -603,7 +690,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,128 +699,128 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +840,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1209,7 +1302,75 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" ht="216" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="21" spans="2:3">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="189" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" display="在浏览器的地址栏中输入 &quot;https://ecp.sgcc.com.cn/ecp2.0/portal/#/&quot;，然后按下回车键。" tooltip="https://www.epri.sgcc.com.cn/"/>
+    <hyperlink ref="C20" r:id="rId2" display="https://ecp.sgcc.com.cn/ecp2.0/portal/#/list/list-spe/2018032600289606_1_2018032700291334"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/service/vv.xlsx
+++ b/service/vv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26670" windowHeight="18060"/>
+    <workbookView windowHeight="28725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>编号</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在浏览器的地址栏中输入</t>
     </r>
     <r>
@@ -159,6 +165,73 @@
   </si>
   <si>
     <t>已点击招标文件的链接或相关的下载按钮。</t>
+  </si>
+  <si>
+    <t>请帮我查询快递为73507817201124的物流追踪信息</t>
+  </si>
+  <si>
+    <t>物流追踪
+2023年09月11日 上午08:50:33
+最新
+【北京市】 快件已由 【门卫】 签收,如有疑问请电联派件业务员：13241224649，签收网点电话：010-67444462，投诉电话：010-67444462。感谢使用中通快递，期待再次为您服务！
+2023年09月11日 上午07:29:01
+【北京市】北京石景山八大处 的业务员【甄会杰13241224649,13241224649】正在为您派件（95720为中通快递员外呼专属号码，请放心接听，如有问题可联系网点:010-67444462,投诉电话:010-67444462）
+2023年09月11日 上午06:17:52
+【北京市】 快件已到达 北京石景山八大处
+2023年09月10日 下午02:29:16
+【保定市】 快件已发往 北京石景山八大处
+2023年09月10日 上午11:40:37
+【保定市】 快件已到达 京南转运中心
+2023年09月09日 上午03:40:42
+【广州市】 快件已发往 京南转运中心
+2023年09月09日 上午03:36:38
+【广州市】 快件已到达 广州中心
+2023年09月09日 下午00:21:06
+【广州市】 快件已发往 京南转运中心
+2023年09月08日 下午08:36:21
+【广州市】 广州嘉禾（020-22383477）俞-陈结华（17724008657） 已揽收</t>
+  </si>
+  <si>
+    <t>今日商业新闻最新</t>
+  </si>
+  <si>
+    <t>今日关于商业的新闻有很多，我为您筛选了一些最新商业新闻：
+9月11日晚，沪指低开低走跌0.71%，光刻胶、芯片等科技股活跃；
+诺辉健康陈一友：宫颈癌可以根除，但需走完最后一公里；
+同花顺圈子：恒大复牌跌88%；
+上海电气起诉中国能源，ST美盛将被处罚，投资者可索赔。
+如果您想了解更多商业新闻，可以登录权威财经网站查看。</t>
+  </si>
+  <si>
+    <t>介绍一下北明软件有限公司</t>
+  </si>
+  <si>
+    <t>北明软件有限公司,是一家成立于1994年的软件开发公司,主要业务如下:
+公司成立地址:北京海淀区
+公司注册资本:5000万人民币
+公司法定代表人:张三
+公司主营业务:
+开发各类Windows及Web软件,主打产品为账套软件、ERP系统等
+提供自定义软件开发服务,根据客户需求定制不同类型软件
+从事各类网络信息技术服务,如网站建设、维护等
+开展软件培训与咨询工作
+公司研发团队:拥有近百名技术研发人员,研发实力雄厚
+公司产品:主要产品有金融一体化系统、中小企业管理软件等10多个软件产品
+公司荣誉:多次获得国家级和省级软件行业奖项
+公司客户:已为国内知名企业提供长期技术服务支持, Kunden遍布多个行业
+公司联系方式:公司地址及客服电话等联系方式
+北明软件有限公司是一家规模较大的软件研发企业,从事各类软件开发与信息服务工作多年,拥有较强的技术实力和客户基础。以上就是这家公司的一些基本介绍。</t>
+  </si>
+  <si>
+    <t>介绍一下北明软件有限公司-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+北明软件有限公司（以下简称“北明软件“，系常山北明全资子公司，股票代码：000158）于1998年在中国广州成立，注册资本金7.387亿元人民币，致力于为金融、电力、能源、政府、互联网/运营商、公共事业、制造业等行业提供综合性IT解决方案和云计算服务。
+北明软件运营中心设于北京，在全国设4个大区，近30个分支机构（分公司、全资子公司和参、控股公司）分布全国各地，形成了覆盖全国的业务营销网络和服务支持体系。
+北明软件提供以云计算、大数据、互联网+等技术为核心的综合性IT解决方案和服务，业务范围包括：云计算系统设计、建设与服务、IT系统建设规划与咨询、行业应用软件及解决方案开发、大型数据中心运维管理、智慧城市以及系统集成等。
+作为一家极富创新性的高新技术企业，北明软件始终坚持通过持续创新为客户创造价值。经过十余年的业务积累，公司打造了“咨询为先导，产品为依托，服务为核心”的业务模式，致力于向市场推出技术领先的优质产品和解决方案。公司在北京、广州、杭州、南京、武汉建立了五个研发基地，拥有优秀的技术开发与应用专家。通过多年、持续的研发投入，目前，北明软件拥有过百项国内领先的自主知识产权的软件产品和优秀的行业解决方案。
+北明软件是国家规划布局内重点软件企业、高新技术企业，中国软件业务收入百强企业。具有计算机信息系统集成资质（大型一级）、涉及国家秘密的计算机信息系统集成资质（甲级）、国家信息安全服务（一级）资质、建筑智能化工程设计与施工一级等资质；通过了CMMI5级、ISO9001、ISO20000、ISO27001、ISO14001、OHSAS18001等国际标准认证。同时，北明软件与华为、IBM、CISCO、EMC、H3C、Oracle、Vmware、微软等国内外著名厂商广泛合作，与腾讯、阿里、百度等互联网公司建立了长期战略合作关系，优势互补，协作共赢，全力为客户打造具有优势竞争力的解决方案。</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1366,6 +1439,38 @@
         <v>36</v>
       </c>
     </row>
+    <row r="29" ht="297" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="94.5" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="405" spans="2:3">
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" ht="283.5" spans="2:3">
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" display="在浏览器的地址栏中输入 &quot;https://ecp.sgcc.com.cn/ecp2.0/portal/#/&quot;，然后按下回车键。" tooltip="https://www.epri.sgcc.com.cn/"/>
